--- a/files/file_api_auto.xlsx
+++ b/files/file_api_auto.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>File Type</t>
   </si>
@@ -38,19 +38,28 @@
     <t>mp3</t>
   </si>
   <si>
-    <t>https://prutech.org/MediaServer/api/Media/Data/f39ae9ff3a/2mb1.mp3</t>
+    <t>https://buzib.com/file_server/7984f276-9cb7-45f0-83c7-ae3d5efc043b/2mb1.mp3</t>
   </si>
   <si>
     <t>amr</t>
   </si>
   <si>
-    <t>http://tmpfiles.org/dl/1652568/3mb1.amr</t>
+    <t>https://buzib.com/file_server/6cf348eb-994a-47f7-ab98-dfb101f7e9ae/AMRfile.amr</t>
   </si>
   <si>
     <t>aac</t>
   </si>
   <si>
-    <t>http://tmpfiles.org/dl/1652540/3mb.aac</t>
+    <t>https://buzib.com/file_server/eed46385-b22c-402b-a2bb-d344da60c206/3mb.aac</t>
+  </si>
+  <si>
+    <t>opus</t>
+  </si>
+  <si>
+    <t>jpg</t>
+  </si>
+  <si>
+    <t>https://buzib.com/file_server/8b805edc-271c-43d9-b6f6-f3fc99a57b1c/4frogJPGfile.jpg</t>
   </si>
 </sst>
 </file>
@@ -72,18 +81,18 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8.6"/>
-      <color rgb="FF7A7E85"/>
-      <name val="Courier New"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color rgb="FF212121"/>
+      <name val="Segoe UI"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -540,7 +549,7 @@
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -670,10 +679,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="6"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="6" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="49">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -733,6 +743,13 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -993,16 +1010,16 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="3" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9.14285714285714" defaultRowHeight="15" outlineLevelRow="5" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="32.4285714285714" customWidth="1"/>
-    <col min="2" max="2" width="75.1428571428571" customWidth="1"/>
+    <col min="2" max="2" width="80" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2">
@@ -1037,10 +1054,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="5" spans="1:1">
+      <c r="A5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>10</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B3" r:id="rId1" display="http://tmpfiles.org/dl/1652568/3mb1.amr"/>
-    <hyperlink ref="B4" r:id="rId2" display="http://tmpfiles.org/dl/1652540/3mb.aac"/>
+    <hyperlink ref="B3" r:id="rId1" display="https://buzib.com/file_server/6cf348eb-994a-47f7-ab98-dfb101f7e9ae/AMRfile.amr" tooltip="https://buzib.com/file_server/6cf348eb-994a-47f7-ab98-dfb101f7e9ae/AMRfile.amr"/>
+    <hyperlink ref="B2" r:id="rId2" display="https://buzib.com/file_server/7984f276-9cb7-45f0-83c7-ae3d5efc043b/2mb1.mp3" tooltip="https://buzib.com/file_server/7984f276-9cb7-45f0-83c7-ae3d5efc043b/2mb1.mp3"/>
   </hyperlinks>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
